--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="67">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widget Wildcard Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disco DCC LCC</t>
   </si>
 </sst>
 </file>
@@ -1431,6 +1440,9 @@
       <c r="I3" s="21" t="s">
         <v>36</v>
       </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
@@ -1451,6 +1463,7 @@
         <v>48</v>
       </c>
       <c r="I4"/>
+      <c r="J4"/>
       <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1680,7 +1693,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:10"/>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="7" spans="2:10"/>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="69">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t xml:space="preserve">Disco DCC LCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourceId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1701,7 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="96">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -224,6 +224,87 @@
   </si>
   <si>
     <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function Key1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function Key5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function Key4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function Key3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function Key2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the status bar - power, clock, connection status, events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,a-z,A-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`~!@#$%^&amp;*()_+-={}|[]\&lt;&gt;?,./</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`~!@#$%^&amp;*()_+-={}|[]\&lt;&gt;?,./"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`~!@#$%^&amp;*()_+-={}|[]\&lt;&gt;?,./"';:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`~!@ #$%^&amp;*()_+-={}|[]\&lt;&gt;?,./"';:</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1568,29 @@
       </c>
     </row>
     <row r="5" spans="2:15">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
       <c r="I5"/>
+      <c r="J5"/>
       <c r="K5" s="8" t="s">
         <v>1</v>
       </c>
@@ -1667,16 +1770,16 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -1684,16 +1787,16 @@
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1701,25 +1804,123 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:10"/>
-    <row r="8" spans="2:10"/>
-    <row r="9" spans="2:10"/>
-    <row r="10" spans="2:10"/>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="13" spans="2:10"/>
     <row r="14" spans="2:10"/>
     <row r="15" spans="2:10"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="124">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -305,6 +305,90 @@
   </si>
   <si>
     <t xml:space="preserve">`~!@ #$%^&amp;*()_+-={}|[]\&lt;&gt;?,./"';:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***&lt;value&gt;***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx&lt;value&gt;xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextIdCenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slew Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prog.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backlight</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1880,7 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1804,16 +1888,16 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1821,7 +1905,7 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -1838,16 +1922,16 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -1855,16 +1939,16 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1872,16 +1956,16 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
         <v>59</v>
@@ -1889,16 +1973,16 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1906,7 +1990,7 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -1915,18 +1999,114 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:10"/>
-    <row r="14" spans="2:10"/>
-    <row r="15" spans="2:10"/>
-    <row r="16" spans="2:10"/>
-    <row r="17" spans="4:4"/>
-    <row r="18" spans="4:4"/>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="19" spans="4:4"/>
     <row r="20" spans="4:4"/>
     <row r="21" spans="4:4"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="125">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t xml:space="preserve">Backlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,a-z,A-Z,0xA9</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1674,7 @@
         <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="133">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -392,6 +392,30 @@
   </si>
   <si>
     <t xml:space="preserve">0-9,a-z,A-Z,0xA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming Track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan Track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read All CVs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resourceIdScanTrack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resourceReadAllCVs</t>
   </si>
 </sst>
 </file>
@@ -2110,8 +2134,40 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="4:4"/>
-    <row r="20" spans="4:4"/>
+    <row r="19" spans="4:4">
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="21" spans="4:4"/>
     <row r="22" spans="4:4"/>
     <row r="23" spans="4:4"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6766" uniqueCount="155">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -416,6 +416,72 @@
   </si>
   <si>
     <t xml:space="preserve">resourceReadAllCVs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt; %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20-0x7e,0xA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_10px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20-0x7e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextIdSmallCenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourceId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourceId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_40px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextIdMediumCentered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throttle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextIdMedium</t>
   </si>
 </sst>
 </file>
@@ -1694,11 +1760,9 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>95</v>
-      </c>
+      <c r="G5"/>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -1717,7 +1781,27 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="2:15">
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>137</v>
+      </c>
       <c r="I6"/>
+      <c r="J6"/>
       <c r="K6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1733,6 +1817,27 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
       <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
@@ -2119,16 +2224,16 @@
     </row>
     <row r="18" spans="4:4">
       <c r="B18" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
         <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
         <v>59</v>
@@ -2136,7 +2241,7 @@
     </row>
     <row r="19" spans="4:4">
       <c r="B19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
@@ -2145,7 +2250,7 @@
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
         <v>59</v>
@@ -2153,7 +2258,7 @@
     </row>
     <row r="20" spans="4:4">
       <c r="B20" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -2162,19 +2267,131 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="4:4"/>
-    <row r="22" spans="4:4"/>
-    <row r="23" spans="4:4"/>
-    <row r="24" spans="4:4"/>
-    <row r="25" spans="4:4"/>
-    <row r="26" spans="4:4"/>
-    <row r="27" spans="4:4"/>
+    <row r="21" spans="4:4">
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="28" spans="4:4"/>
     <row r="29" spans="4:4"/>
     <row r="30" spans="4:4"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6766" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10283" uniqueCount="190">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -482,6 +482,111 @@
   </si>
   <si>
     <t xml:space="preserve">wildcardTextIdMedium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_Numeric_40px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consola.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextIdMediumNumeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DccConfigAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DccConfigName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DccConfigDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DccConfigDecoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DccConfigConfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All CVs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DccConfigAllCVs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextIdNumeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;id&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-z,A-Z,0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!”"#*%&amp;()'$+-@_, .:;?/~±×÷•º`´{}©£€^®¥_=[]¡¢|\¿&gt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!”#*"%&amp;()'$+-@_, .:;?/~±×÷•º`´{}©£€^®¥_=[]¡¢|\¿&gt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnteredText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;placeHolder&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlphaMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1937,9 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7"/>
+      <c r="G7" t="s">
+        <v>182</v>
+      </c>
       <c r="H7" t="s">
         <v>137</v>
       </c>
@@ -1855,6 +1962,27 @@
       </c>
     </row>
     <row r="8" spans="2:15">
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
       <c r="K8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1870,6 +1998,29 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1887,6 +2038,29 @@
       </c>
     </row>
     <row r="10" spans="2:15">
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
       <c r="K10" s="12" t="s">
         <v>36</v>
       </c>
@@ -1902,6 +2076,25 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15">
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="2:15">
@@ -2392,17 +2585,193 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="4:4"/>
-    <row r="29" spans="4:4"/>
-    <row r="30" spans="4:4"/>
-    <row r="31" spans="4:4"/>
-    <row r="32" spans="4:4"/>
-    <row r="33" spans="4:4"/>
-    <row r="34" spans="4:4"/>
-    <row r="35" spans="4:4"/>
-    <row r="36" spans="4:4"/>
-    <row r="37" spans="4:4"/>
-    <row r="38" spans="4:4"/>
+    <row r="28" spans="4:4">
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="B37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="39" spans="4:4"/>
     <row r="40" spans="4:4"/>
     <row r="41" spans="4:4"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10283" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16396" uniqueCount="204">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -587,6 +587,48 @@
   </si>
   <si>
     <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextLeft20pxId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextCenter20pxId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextCentered40pxId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextLeft40pxId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextLeft60pxNumericId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextLeft40pxNumericId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SansSerif80px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SansSerif20px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeric40px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SansSerif28px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SansSerif40px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SansSerif10px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextLeft28px</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1857,7 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -1851,13 +1893,13 @@
     </row>
     <row r="5" spans="2:15">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1865,9 +1907,11 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>182</v>
+      </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -1887,13 +1931,13 @@
     </row>
     <row r="6" spans="2:15">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1901,9 +1945,11 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>190</v>
+      </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1923,13 +1969,13 @@
     </row>
     <row r="7" spans="2:15">
       <c r="B7" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -1938,10 +1984,10 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1963,13 +2009,13 @@
     </row>
     <row r="8" spans="2:15">
       <c r="B8" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -1977,9 +2023,11 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>182</v>
+      </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -1998,27 +2046,6 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" t="s">
-        <v>179</v>
-      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" s="12" t="s">
@@ -2038,27 +2065,6 @@
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" t="s">
-        <v>179</v>
-      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" s="12" t="s">
@@ -2076,23 +2082,6 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" s="16"/>
@@ -2182,7 +2171,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
@@ -2196,10 +2185,10 @@
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
         <v>62</v>
@@ -2216,7 +2205,7 @@
         <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
         <v>62</v>
@@ -2230,10 +2219,10 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
@@ -2250,7 +2239,7 @@
         <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
@@ -2267,7 +2256,7 @@
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
         <v>62</v>
@@ -2284,7 +2273,7 @@
         <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
         <v>62</v>
@@ -2301,7 +2290,7 @@
         <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
         <v>62</v>
@@ -2318,7 +2307,7 @@
         <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
         <v>62</v>
@@ -2335,7 +2324,7 @@
         <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
         <v>62</v>
@@ -2352,7 +2341,7 @@
         <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
         <v>62</v>
@@ -2369,7 +2358,7 @@
         <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
         <v>62</v>
@@ -2386,7 +2375,7 @@
         <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
@@ -2403,7 +2392,7 @@
         <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
         <v>62</v>
@@ -2420,7 +2409,7 @@
         <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
@@ -2437,7 +2426,7 @@
         <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>
@@ -2451,16 +2440,16 @@
     </row>
     <row r="20" spans="4:4">
       <c r="B20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="F20" t="s">
         <v>59</v>
@@ -2468,16 +2457,16 @@
     </row>
     <row r="21" spans="4:4">
       <c r="B21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
@@ -2485,16 +2474,16 @@
     </row>
     <row r="22" spans="4:4">
       <c r="B22" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="D22" t="s">
         <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -2502,16 +2491,16 @@
     </row>
     <row r="23" spans="4:4">
       <c r="B23" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -2519,16 +2508,16 @@
     </row>
     <row r="24" spans="4:4">
       <c r="B24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F24" t="s">
         <v>59</v>
@@ -2536,16 +2525,16 @@
     </row>
     <row r="25" spans="4:4">
       <c r="B25" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -2553,16 +2542,16 @@
     </row>
     <row r="26" spans="4:4">
       <c r="B26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
@@ -2570,16 +2559,16 @@
     </row>
     <row r="27" spans="4:4">
       <c r="B27" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
         <v>59</v>
@@ -2587,16 +2576,16 @@
     </row>
     <row r="28" spans="4:4">
       <c r="B28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
         <v>59</v>
@@ -2604,16 +2593,16 @@
     </row>
     <row r="29" spans="4:4">
       <c r="B29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
         <v>59</v>
@@ -2621,16 +2610,16 @@
     </row>
     <row r="30" spans="4:4">
       <c r="B30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
         <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
@@ -2638,16 +2627,16 @@
     </row>
     <row r="31" spans="4:4">
       <c r="B31" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
         <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="F31" t="s">
         <v>59</v>
@@ -2655,16 +2644,16 @@
     </row>
     <row r="32" spans="4:4">
       <c r="B32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D32" t="s">
         <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s">
         <v>59</v>
@@ -2672,16 +2661,16 @@
     </row>
     <row r="33" spans="4:4">
       <c r="B33" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F33" t="s">
         <v>59</v>
@@ -2689,16 +2678,16 @@
     </row>
     <row r="34" spans="4:4">
       <c r="B34" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
         <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -2706,16 +2695,16 @@
     </row>
     <row r="35" spans="4:4">
       <c r="B35" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
         <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F35" t="s">
         <v>59</v>
@@ -2723,16 +2712,16 @@
     </row>
     <row r="36" spans="4:4">
       <c r="B36" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
         <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s">
         <v>59</v>
@@ -2740,38 +2729,22 @@
     </row>
     <row r="37" spans="4:4">
       <c r="B37" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
         <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
-      <c r="B38" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" t="s">
-        <v>59</v>
-      </c>
-    </row>
+    <row r="38" spans="4:4"/>
     <row r="39" spans="4:4"/>
     <row r="40" spans="4:4"/>
     <row r="41" spans="4:4"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16396" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16872" uniqueCount="206">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -629,6 +629,12 @@
   </si>
   <si>
     <t xml:space="preserve">wildcardTextLeft28px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waitButtonOKId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok</t>
   </si>
 </sst>
 </file>
@@ -2744,7 +2750,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="4:4"/>
+    <row r="38" spans="4:4">
+      <c r="B38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="39" spans="4:4"/>
     <row r="40" spans="4:4"/>
     <row r="41" spans="4:4"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16872" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17616" uniqueCount="210">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -635,6 +635,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resourceDelete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waitButtonCancelId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel</t>
   </si>
 </sst>
 </file>
@@ -2767,8 +2779,40 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="4:4"/>
-    <row r="40" spans="4:4"/>
+    <row r="39" spans="4:4">
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="B40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="41" spans="4:4"/>
     <row r="42" spans="4:4"/>
     <row r="43" spans="4:4"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17616" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17866" uniqueCount="210">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2526,16 +2526,16 @@
     </row>
     <row r="24" spans="4:4">
       <c r="B24" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
         <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
         <v>59</v>
@@ -2543,16 +2543,16 @@
     </row>
     <row r="25" spans="4:4">
       <c r="B25" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
         <v>201</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -2560,16 +2560,16 @@
     </row>
     <row r="26" spans="4:4">
       <c r="B26" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C26" t="s">
         <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="27" spans="4:4">
       <c r="B27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s">
         <v>201</v>
@@ -2586,7 +2586,7 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
         <v>59</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="28" spans="4:4">
       <c r="B28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
         <v>201</v>
@@ -2603,7 +2603,7 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
         <v>59</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="4:4">
       <c r="B29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
         <v>201</v>
@@ -2620,7 +2620,7 @@
         <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="F29" t="s">
         <v>59</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="30" spans="4:4">
       <c r="B30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
         <v>201</v>
@@ -2637,7 +2637,7 @@
         <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="31" spans="4:4">
       <c r="B31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
         <v>201</v>
@@ -2654,7 +2654,7 @@
         <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s">
         <v>59</v>
@@ -2662,16 +2662,16 @@
     </row>
     <row r="32" spans="4:4">
       <c r="B32" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
         <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F32" t="s">
         <v>59</v>
@@ -2679,16 +2679,16 @@
     </row>
     <row r="33" spans="4:4">
       <c r="B33" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F33" t="s">
         <v>59</v>
@@ -2696,16 +2696,16 @@
     </row>
     <row r="34" spans="4:4">
       <c r="B34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
         <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="35" spans="4:4">
       <c r="B35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
         <v>198</v>
@@ -2722,7 +2722,7 @@
         <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F35" t="s">
         <v>59</v>
@@ -2730,16 +2730,16 @@
     </row>
     <row r="36" spans="4:4">
       <c r="B36" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
         <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
         <v>59</v>
@@ -2747,16 +2747,16 @@
     </row>
     <row r="37" spans="4:4">
       <c r="B37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="F37" t="s">
         <v>59</v>
@@ -2764,16 +2764,16 @@
     </row>
     <row r="38" spans="4:4">
       <c r="B38" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s">
         <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F38" t="s">
         <v>59</v>
@@ -2781,16 +2781,16 @@
     </row>
     <row r="39" spans="4:4">
       <c r="B39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
         <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F39" t="s">
         <v>59</v>
@@ -2798,16 +2798,16 @@
     </row>
     <row r="40" spans="4:4">
       <c r="B40" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
         <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
         <v>59</v>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17866" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18628" uniqueCount="212">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -647,6 +647,12 @@
   </si>
   <si>
     <t xml:space="preserve">Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCCConfigSpeedSteps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed Steps</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2819,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:4"/>
+    <row r="41" spans="4:4">
+      <c r="B41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="42" spans="4:4"/>
     <row r="43" spans="4:4"/>
     <row r="44" spans="4:4"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18628" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19164" uniqueCount="218">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -653,6 +653,24 @@
   </si>
   <si>
     <t xml:space="preserve">Speed Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmallImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargeImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCCConfigSmallImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCCConfigLargeImage</t>
   </si>
 </sst>
 </file>
@@ -2836,8 +2854,40 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="4:4"/>
-    <row r="43" spans="4:4"/>
+    <row r="42" spans="4:4">
+      <c r="B42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="B43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="44" spans="4:4"/>
     <row r="45" spans="4:4"/>
     <row r="46" spans="4:4"/>

--- a/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32F469_Controller/Source/TouchGFX/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19164" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19438" uniqueCount="220">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -671,6 +671,12 @@
   </si>
   <si>
     <t xml:space="preserve">DCCConfigLargeImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wildcardTextCentered28pxId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;placeholder&gt;</t>
   </si>
 </sst>
 </file>
@@ -2888,7 +2894,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="4:4"/>
+    <row r="44" spans="4:4">
+      <c r="B44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="45" spans="4:4"/>
     <row r="46" spans="4:4"/>
     <row r="47" spans="4:4"/>
